--- a/intent_categorization_v2.xlsx
+++ b/intent_categorization_v2.xlsx
@@ -1372,15 +1372,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EMP-001</t>
+          <t>EMP-003</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
